--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Trem2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95580443025989</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H2">
-        <v>2.95580443025989</v>
+        <v>73.337278</v>
       </c>
       <c r="I2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J2">
-        <v>0.08015205473956009</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>58.5739280253788</v>
+        <v>8.781144333333334</v>
       </c>
       <c r="N2">
-        <v>58.5739280253788</v>
+        <v>26.343433</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1283382517649557</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1283382517649557</v>
       </c>
       <c r="Q2">
-        <v>173.1330759551386</v>
+        <v>214.6617410439304</v>
       </c>
       <c r="R2">
-        <v>173.1330759551386</v>
+        <v>1931.955669395374</v>
       </c>
       <c r="S2">
-        <v>0.08015205473956009</v>
+        <v>0.05177232162896338</v>
       </c>
       <c r="T2">
-        <v>0.08015205473956009</v>
+        <v>0.05177232162896337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0251359173134</v>
+        <v>24.44575933333333</v>
       </c>
       <c r="H3">
-        <v>14.0251359173134</v>
+        <v>73.337278</v>
       </c>
       <c r="I3">
-        <v>0.3803172666858183</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="J3">
-        <v>0.3803172666858183</v>
+        <v>0.4034052273345712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.5739280253788</v>
+        <v>59.64073466666667</v>
       </c>
       <c r="N3">
-        <v>58.5739280253788</v>
+        <v>178.922204</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8716617482350444</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8716617482350443</v>
       </c>
       <c r="Q3">
-        <v>821.5073017668701</v>
+        <v>1457.963046124524</v>
       </c>
       <c r="R3">
-        <v>821.5073017668701</v>
+        <v>13121.66741512071</v>
       </c>
       <c r="S3">
-        <v>0.3803172666858183</v>
+        <v>0.3516329057056079</v>
       </c>
       <c r="T3">
-        <v>0.3803172666858183</v>
+        <v>0.3516329057056078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>14.28901333333333</v>
+      </c>
+      <c r="H4">
+        <v>42.86704</v>
+      </c>
+      <c r="I4">
+        <v>0.2357980618855278</v>
+      </c>
+      <c r="J4">
+        <v>0.2357980618855278</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>8.781144333333334</v>
+      </c>
+      <c r="N4">
+        <v>26.343433</v>
+      </c>
+      <c r="O4">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="P4">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="Q4">
+        <v>125.4738884609245</v>
+      </c>
+      <c r="R4">
+        <v>1129.26499614832</v>
+      </c>
+      <c r="S4">
+        <v>0.03026191103195347</v>
+      </c>
+      <c r="T4">
+        <v>0.03026191103195347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>14.28901333333333</v>
+      </c>
+      <c r="H5">
+        <v>42.86704</v>
+      </c>
+      <c r="I5">
+        <v>0.2357980618855278</v>
+      </c>
+      <c r="J5">
+        <v>0.2357980618855278</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>59.64073466666667</v>
+      </c>
+      <c r="N5">
+        <v>178.922204</v>
+      </c>
+      <c r="O5">
+        <v>0.8716617482350444</v>
+      </c>
+      <c r="P5">
+        <v>0.8716617482350443</v>
+      </c>
+      <c r="Q5">
+        <v>852.2072528617957</v>
+      </c>
+      <c r="R5">
+        <v>7669.865275756161</v>
+      </c>
+      <c r="S5">
+        <v>0.2055361508535744</v>
+      </c>
+      <c r="T5">
+        <v>0.2055361508535744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.480005</v>
+      </c>
+      <c r="H6">
+        <v>1.440015</v>
+      </c>
+      <c r="I6">
+        <v>0.007921068169999337</v>
+      </c>
+      <c r="J6">
+        <v>0.007921068169999336</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>8.781144333333334</v>
+      </c>
+      <c r="N6">
+        <v>26.343433</v>
+      </c>
+      <c r="O6">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="P6">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="Q6">
+        <v>4.214993185721667</v>
+      </c>
+      <c r="R6">
+        <v>37.934938671495</v>
+      </c>
+      <c r="S6">
+        <v>0.001016576041048752</v>
+      </c>
+      <c r="T6">
+        <v>0.001016576041048751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.480005</v>
+      </c>
+      <c r="H7">
+        <v>1.440015</v>
+      </c>
+      <c r="I7">
+        <v>0.007921068169999337</v>
+      </c>
+      <c r="J7">
+        <v>0.007921068169999336</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>59.64073466666667</v>
+      </c>
+      <c r="N7">
+        <v>178.922204</v>
+      </c>
+      <c r="O7">
+        <v>0.8716617482350444</v>
+      </c>
+      <c r="P7">
+        <v>0.8716617482350443</v>
+      </c>
+      <c r="Q7">
+        <v>28.62785084367334</v>
+      </c>
+      <c r="R7">
+        <v>257.65065759306</v>
+      </c>
+      <c r="S7">
+        <v>0.006904492128950586</v>
+      </c>
+      <c r="T7">
+        <v>0.006904492128950584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="H4">
-        <v>19.8965226178398</v>
-      </c>
-      <c r="I4">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="J4">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>58.5739280253788</v>
-      </c>
-      <c r="N4">
-        <v>58.5739280253788</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1165.41748377267</v>
-      </c>
-      <c r="R4">
-        <v>1165.41748377267</v>
-      </c>
-      <c r="S4">
-        <v>0.5395306785746216</v>
-      </c>
-      <c r="T4">
-        <v>0.5395306785746216</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H8">
+        <v>64.151224</v>
+      </c>
+      <c r="I8">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J8">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>8.781144333333334</v>
+      </c>
+      <c r="N8">
+        <v>26.343433</v>
+      </c>
+      <c r="O8">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="P8">
+        <v>0.1283382517649557</v>
+      </c>
+      <c r="Q8">
+        <v>187.7737190346658</v>
+      </c>
+      <c r="R8">
+        <v>1689.963471311992</v>
+      </c>
+      <c r="S8">
+        <v>0.04528744306299008</v>
+      </c>
+      <c r="T8">
+        <v>0.04528744306299008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>21.38374133333333</v>
+      </c>
+      <c r="H9">
+        <v>64.151224</v>
+      </c>
+      <c r="I9">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="J9">
+        <v>0.3528756426099016</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>59.64073466666667</v>
+      </c>
+      <c r="N9">
+        <v>178.922204</v>
+      </c>
+      <c r="O9">
+        <v>0.8716617482350444</v>
+      </c>
+      <c r="P9">
+        <v>0.8716617482350443</v>
+      </c>
+      <c r="Q9">
+        <v>1275.342043041966</v>
+      </c>
+      <c r="R9">
+        <v>11478.0783873777</v>
+      </c>
+      <c r="S9">
+        <v>0.3075881995469116</v>
+      </c>
+      <c r="T9">
+        <v>0.3075881995469115</v>
       </c>
     </row>
   </sheetData>
